--- a/artfynd/Lögdaselet artfynd.xlsx
+++ b/artfynd/Lögdaselet artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY47"/>
+  <dimension ref="A1:AY49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3036,48 +3036,48 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1991798</v>
+        <v>126837623</v>
       </c>
       <c r="B26" t="n">
-        <v>80083</v>
+        <v>98382</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>13,2 km O om Fredrika, Ås lm</t>
+          <t>Storaggan S om, Ås lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>678980</v>
+        <v>677483</v>
       </c>
       <c r="R26" t="n">
-        <v>7109235</v>
+        <v>7109385</v>
       </c>
       <c r="S26" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3101,12 +3101,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2005-08-09</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2005-08-09</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3121,22 +3121,26 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Sveaskog Västerbotten</t>
+          <t>Liam Sebestyén</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Via Sveaskog Västerbotten</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr"/>
+          <t>Liam Sebestyén</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>126814938</v>
+        <v>1991798</v>
       </c>
       <c r="B27" t="n">
-        <v>79598</v>
+        <v>80083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3144,37 +3148,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Storaggan, Ås lm</t>
+          <t>13,2 km O om Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>677543</v>
+        <v>678980</v>
       </c>
       <c r="R27" t="n">
-        <v>7109764</v>
+        <v>7109235</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3198,12 +3202,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2005-08-09</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2005-08-09</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3218,44 +3222,44 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Sveaskog Västerbotten</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Via Sveaskog Västerbotten</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>126814949</v>
+        <v>126814938</v>
       </c>
       <c r="B28" t="n">
-        <v>80112</v>
+        <v>79598</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6462</v>
+        <v>6453</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3265,10 +3269,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>677526</v>
+        <v>677543</v>
       </c>
       <c r="R28" t="n">
-        <v>7109531</v>
+        <v>7109764</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3327,32 +3331,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>126814976</v>
+        <v>126814949</v>
       </c>
       <c r="B29" t="n">
-        <v>78647</v>
+        <v>80112</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>353</v>
+        <v>6462</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3362,10 +3366,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>677541</v>
+        <v>677526</v>
       </c>
       <c r="R29" t="n">
-        <v>7109785</v>
+        <v>7109531</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3424,10 +3428,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>126814964</v>
+        <v>126814976</v>
       </c>
       <c r="B30" t="n">
-        <v>78980</v>
+        <v>78647</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3435,21 +3439,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3459,10 +3463,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>677401</v>
+        <v>677541</v>
       </c>
       <c r="R30" t="n">
-        <v>7109391</v>
+        <v>7109785</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3521,45 +3525,45 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>126814957</v>
+        <v>126837620</v>
       </c>
       <c r="B31" t="n">
-        <v>77934</v>
+        <v>80112</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>228579</v>
+        <v>6462</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Storaggan, Ås lm</t>
+          <t>Storaggan S om, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>677462</v>
+        <v>677537</v>
       </c>
       <c r="R31" t="n">
-        <v>7109379</v>
+        <v>7109567</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3606,22 +3610,26 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Liam Sebestyén</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
-        </is>
-      </c>
-      <c r="AY31" t="inlineStr"/>
+          <t>Liam Sebestyén</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>126814944</v>
+        <v>126814964</v>
       </c>
       <c r="B32" t="n">
-        <v>75075</v>
+        <v>78980</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3629,21 +3637,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3653,7 +3661,7 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>677465</v>
+        <v>677401</v>
       </c>
       <c r="R32" t="n">
         <v>7109391</v>
@@ -3715,10 +3723,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>126814979</v>
+        <v>126814957</v>
       </c>
       <c r="B33" t="n">
-        <v>78386</v>
+        <v>77934</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3726,21 +3734,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6437</v>
+        <v>228579</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3750,10 +3758,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>677601</v>
+        <v>677462</v>
       </c>
       <c r="R33" t="n">
-        <v>7109964</v>
+        <v>7109379</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3812,59 +3820,45 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>126814958</v>
+        <v>126814944</v>
       </c>
       <c r="B34" t="n">
-        <v>98361</v>
+        <v>75075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>677595</v>
+        <v>677465</v>
       </c>
       <c r="R34" t="n">
-        <v>7110068</v>
+        <v>7109391</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3923,10 +3917,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>126814975</v>
+        <v>126814979</v>
       </c>
       <c r="B35" t="n">
-        <v>78647</v>
+        <v>78386</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3934,21 +3928,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>353</v>
+        <v>6437</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3958,10 +3952,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>677531</v>
+        <v>677601</v>
       </c>
       <c r="R35" t="n">
-        <v>7109708</v>
+        <v>7109964</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4020,45 +4014,59 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>126814954</v>
+        <v>126814958</v>
       </c>
       <c r="B36" t="n">
-        <v>80119</v>
+        <v>98361</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6464</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>677469</v>
+        <v>677595</v>
       </c>
       <c r="R36" t="n">
-        <v>7109383</v>
+        <v>7110068</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4091,11 +4099,6 @@
       <c r="AA36" t="inlineStr">
         <is>
           <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>På grov gammal rönn</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4122,10 +4125,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>126814951</v>
+        <v>126814975</v>
       </c>
       <c r="B37" t="n">
-        <v>57654</v>
+        <v>78647</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4133,21 +4136,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100049</v>
+        <v>353</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4157,10 +4160,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>677608</v>
+        <v>677531</v>
       </c>
       <c r="R37" t="n">
-        <v>7109815</v>
+        <v>7109708</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4219,32 +4222,32 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>126814968</v>
+        <v>126814954</v>
       </c>
       <c r="B38" t="n">
-        <v>78980</v>
+        <v>80119</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4254,10 +4257,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>677477</v>
+        <v>677469</v>
       </c>
       <c r="R38" t="n">
-        <v>7109411</v>
+        <v>7109383</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4290,6 +4293,11 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>På grov gammal rönn</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4316,10 +4324,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>126814980</v>
+        <v>126814951</v>
       </c>
       <c r="B39" t="n">
-        <v>78386</v>
+        <v>57654</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4327,21 +4335,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6437</v>
+        <v>100049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4351,10 +4359,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>677538</v>
+        <v>677608</v>
       </c>
       <c r="R39" t="n">
-        <v>7109554</v>
+        <v>7109815</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4413,10 +4421,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>126814974</v>
+        <v>126814968</v>
       </c>
       <c r="B40" t="n">
-        <v>57657</v>
+        <v>78980</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4424,39 +4432,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>677466</v>
+        <v>677477</v>
       </c>
       <c r="R40" t="n">
-        <v>7109379</v>
+        <v>7109411</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4515,10 +4518,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>126814962</v>
+        <v>126814980</v>
       </c>
       <c r="B41" t="n">
-        <v>82792</v>
+        <v>78386</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4526,21 +4529,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1312</v>
+        <v>6437</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4550,10 +4553,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>677473</v>
+        <v>677538</v>
       </c>
       <c r="R41" t="n">
-        <v>7109404</v>
+        <v>7109554</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4612,10 +4615,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>126814965</v>
+        <v>126814974</v>
       </c>
       <c r="B42" t="n">
-        <v>78980</v>
+        <v>57657</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4623,34 +4626,39 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>677536</v>
+        <v>677466</v>
       </c>
       <c r="R42" t="n">
-        <v>7109606</v>
+        <v>7109379</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4709,32 +4717,32 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>126814972</v>
+        <v>126814962</v>
       </c>
       <c r="B43" t="n">
-        <v>98278</v>
+        <v>82792</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>219790</v>
+        <v>1312</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4744,10 +4752,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>677402</v>
+        <v>677473</v>
       </c>
       <c r="R43" t="n">
-        <v>7109377</v>
+        <v>7109404</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4806,32 +4814,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>126814973</v>
+        <v>126814965</v>
       </c>
       <c r="B44" t="n">
-        <v>98278</v>
+        <v>78980</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -4841,10 +4849,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>677529</v>
+        <v>677536</v>
       </c>
       <c r="R44" t="n">
-        <v>7109595</v>
+        <v>7109606</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4903,32 +4911,32 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>126814977</v>
+        <v>126814972</v>
       </c>
       <c r="B45" t="n">
-        <v>78647</v>
+        <v>98278</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>353</v>
+        <v>219790</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -4938,10 +4946,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>677639</v>
+        <v>677402</v>
       </c>
       <c r="R45" t="n">
-        <v>7109768</v>
+        <v>7109377</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5000,10 +5008,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>126814950</v>
+        <v>126814973</v>
       </c>
       <c r="B46" t="n">
-        <v>80112</v>
+        <v>98278</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5011,21 +5019,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6462</v>
+        <v>219790</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5035,10 +5043,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>677528</v>
+        <v>677529</v>
       </c>
       <c r="R46" t="n">
-        <v>7109526</v>
+        <v>7109595</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5097,10 +5105,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>126814955</v>
+        <v>126814977</v>
       </c>
       <c r="B47" t="n">
-        <v>80083</v>
+        <v>78647</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5108,21 +5116,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5132,10 +5140,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>677526</v>
+        <v>677639</v>
       </c>
       <c r="R47" t="n">
-        <v>7109531</v>
+        <v>7109768</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5191,6 +5199,200 @@
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>126814950</v>
+      </c>
+      <c r="B48" t="n">
+        <v>80112</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Storaggan, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>677528</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7109526</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>126814955</v>
+      </c>
+      <c r="B49" t="n">
+        <v>80083</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Storaggan, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>677526</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7109531</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/Lögdaselet artfynd.xlsx
+++ b/artfynd/Lögdaselet artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>126814940</v>
+        <v>126814937</v>
       </c>
       <c r="B2" t="n">
         <v>79598</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>677606</v>
+        <v>677539</v>
       </c>
       <c r="R2" t="n">
-        <v>7109678</v>
+        <v>7109754</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>126814937</v>
+        <v>126814940</v>
       </c>
       <c r="B3" t="n">
         <v>79598</v>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>677539</v>
+        <v>677606</v>
       </c>
       <c r="R3" t="n">
-        <v>7109754</v>
+        <v>7109678</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>126814970</v>
+        <v>126814961</v>
       </c>
       <c r="B4" t="n">
         <v>78980</v>
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>677462</v>
+        <v>677470</v>
       </c>
       <c r="R4" t="n">
-        <v>7109378</v>
+        <v>7109382</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>126814961</v>
+        <v>126814970</v>
       </c>
       <c r="B5" t="n">
         <v>78980</v>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>677470</v>
+        <v>677462</v>
       </c>
       <c r="R5" t="n">
-        <v>7109382</v>
+        <v>7109378</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>126814966</v>
+        <v>126814936</v>
       </c>
       <c r="B6" t="n">
-        <v>78980</v>
+        <v>79598</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,21 +1079,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>677648</v>
+        <v>677536</v>
       </c>
       <c r="R6" t="n">
-        <v>7109697</v>
+        <v>7109700</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>126814936</v>
+        <v>126814966</v>
       </c>
       <c r="B7" t="n">
-        <v>79598</v>
+        <v>78980</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1176,21 +1176,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>677536</v>
+        <v>677648</v>
       </c>
       <c r="R7" t="n">
-        <v>7109700</v>
+        <v>7109697</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1669,45 +1669,54 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>126814934</v>
+        <v>126814960</v>
       </c>
       <c r="B12" t="n">
-        <v>79598</v>
+        <v>98361</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>677547</v>
+        <v>677579</v>
       </c>
       <c r="R12" t="n">
-        <v>7109670</v>
+        <v>7110002</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1766,10 +1775,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>126814978</v>
+        <v>126814939</v>
       </c>
       <c r="B13" t="n">
-        <v>78647</v>
+        <v>79598</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1777,21 +1786,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1801,10 +1810,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>677588</v>
+        <v>677539</v>
       </c>
       <c r="R13" t="n">
-        <v>7109668</v>
+        <v>7109781</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1863,7 +1872,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>126814939</v>
+        <v>126814934</v>
       </c>
       <c r="B14" t="n">
         <v>79598</v>
@@ -1898,10 +1907,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>677539</v>
+        <v>677547</v>
       </c>
       <c r="R14" t="n">
-        <v>7109781</v>
+        <v>7109670</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1960,10 +1969,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>126814953</v>
+        <v>126814978</v>
       </c>
       <c r="B15" t="n">
-        <v>78739</v>
+        <v>78647</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,21 +1980,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1995,10 +2004,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>677539</v>
+        <v>677588</v>
       </c>
       <c r="R15" t="n">
-        <v>7109754</v>
+        <v>7109668</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2057,54 +2066,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>126814960</v>
+        <v>126814953</v>
       </c>
       <c r="B16" t="n">
-        <v>98361</v>
+        <v>78739</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>677579</v>
+        <v>677539</v>
       </c>
       <c r="R16" t="n">
-        <v>7110002</v>
+        <v>7109754</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2163,32 +2163,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>126814945</v>
+        <v>126814948</v>
       </c>
       <c r="B17" t="n">
-        <v>75075</v>
+        <v>80112</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2198,10 +2198,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>677462</v>
+        <v>677527</v>
       </c>
       <c r="R17" t="n">
-        <v>7109378</v>
+        <v>7109586</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>126814946</v>
+        <v>126814945</v>
       </c>
       <c r="B18" t="n">
-        <v>79569</v>
+        <v>75075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2271,21 +2271,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>229821</v>
+        <v>6440</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>677600</v>
+        <v>677462</v>
       </c>
       <c r="R18" t="n">
-        <v>7109963</v>
+        <v>7109378</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2357,32 +2357,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>126814948</v>
+        <v>126814946</v>
       </c>
       <c r="B19" t="n">
-        <v>80112</v>
+        <v>79569</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6462</v>
+        <v>229821</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>677527</v>
+        <v>677600</v>
       </c>
       <c r="R19" t="n">
-        <v>7109586</v>
+        <v>7109963</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2454,32 +2454,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>126814952</v>
+        <v>126814969</v>
       </c>
       <c r="B20" t="n">
-        <v>80111</v>
+        <v>78980</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6461</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>677621</v>
+        <v>677470</v>
       </c>
       <c r="R20" t="n">
-        <v>7109689</v>
+        <v>7109386</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>126814969</v>
+        <v>126814963</v>
       </c>
       <c r="B22" t="n">
         <v>78980</v>
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>677470</v>
+        <v>677414</v>
       </c>
       <c r="R22" t="n">
-        <v>7109386</v>
+        <v>7109372</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2745,32 +2745,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>126814963</v>
+        <v>126814952</v>
       </c>
       <c r="B23" t="n">
-        <v>78980</v>
+        <v>80111</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6461</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2780,10 +2780,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>677414</v>
+        <v>677621</v>
       </c>
       <c r="R23" t="n">
-        <v>7109372</v>
+        <v>7109689</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>126814943</v>
+        <v>126814947</v>
       </c>
       <c r="B24" t="n">
-        <v>75075</v>
+        <v>79569</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2853,21 +2853,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6440</v>
+        <v>229821</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2877,10 +2877,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>677425</v>
+        <v>677535</v>
       </c>
       <c r="R24" t="n">
-        <v>7109375</v>
+        <v>7109555</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2939,10 +2939,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>126814947</v>
+        <v>126814943</v>
       </c>
       <c r="B25" t="n">
-        <v>79569</v>
+        <v>75075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2950,21 +2950,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>229821</v>
+        <v>6440</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>677535</v>
+        <v>677425</v>
       </c>
       <c r="R25" t="n">
-        <v>7109555</v>
+        <v>7109375</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3234,10 +3234,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>126814938</v>
+        <v>126814976</v>
       </c>
       <c r="B28" t="n">
-        <v>79598</v>
+        <v>78647</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3245,21 +3245,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>677543</v>
+        <v>677541</v>
       </c>
       <c r="R28" t="n">
-        <v>7109764</v>
+        <v>7109785</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3331,32 +3331,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>126814949</v>
+        <v>126814938</v>
       </c>
       <c r="B29" t="n">
-        <v>80112</v>
+        <v>79598</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6462</v>
+        <v>6453</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3366,10 +3366,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>677526</v>
+        <v>677543</v>
       </c>
       <c r="R29" t="n">
-        <v>7109531</v>
+        <v>7109764</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3428,32 +3428,32 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>126814976</v>
+        <v>126814949</v>
       </c>
       <c r="B30" t="n">
-        <v>78647</v>
+        <v>80112</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>353</v>
+        <v>6462</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>677541</v>
+        <v>677526</v>
       </c>
       <c r="R30" t="n">
-        <v>7109785</v>
+        <v>7109531</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>126814964</v>
+        <v>126814979</v>
       </c>
       <c r="B32" t="n">
-        <v>78980</v>
+        <v>78386</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3637,21 +3637,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>677401</v>
+        <v>677601</v>
       </c>
       <c r="R32" t="n">
-        <v>7109391</v>
+        <v>7109964</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>126814957</v>
+        <v>126814944</v>
       </c>
       <c r="B33" t="n">
-        <v>77934</v>
+        <v>75075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3734,21 +3734,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3758,10 +3758,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>677462</v>
+        <v>677465</v>
       </c>
       <c r="R33" t="n">
-        <v>7109379</v>
+        <v>7109391</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>126814944</v>
+        <v>126814964</v>
       </c>
       <c r="B34" t="n">
-        <v>75075</v>
+        <v>78980</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3831,21 +3831,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>677465</v>
+        <v>677401</v>
       </c>
       <c r="R34" t="n">
         <v>7109391</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>126814979</v>
+        <v>126814957</v>
       </c>
       <c r="B35" t="n">
-        <v>78386</v>
+        <v>77934</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3928,21 +3928,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6437</v>
+        <v>228579</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3952,10 +3952,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>677601</v>
+        <v>677462</v>
       </c>
       <c r="R35" t="n">
-        <v>7109964</v>
+        <v>7109379</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4014,59 +4014,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>126814958</v>
+        <v>126814975</v>
       </c>
       <c r="B36" t="n">
-        <v>98361</v>
+        <v>78647</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>677595</v>
+        <v>677531</v>
       </c>
       <c r="R36" t="n">
-        <v>7110068</v>
+        <v>7109708</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4125,45 +4111,59 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>126814975</v>
+        <v>126814958</v>
       </c>
       <c r="B37" t="n">
-        <v>78647</v>
+        <v>98361</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>677531</v>
+        <v>677595</v>
       </c>
       <c r="R37" t="n">
-        <v>7109708</v>
+        <v>7110068</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4222,32 +4222,32 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>126814954</v>
+        <v>126814980</v>
       </c>
       <c r="B38" t="n">
-        <v>80119</v>
+        <v>78386</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6464</v>
+        <v>6437</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>677469</v>
+        <v>677538</v>
       </c>
       <c r="R38" t="n">
-        <v>7109383</v>
+        <v>7109554</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4293,11 +4293,6 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>På grov gammal rönn</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4324,32 +4319,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>126814951</v>
+        <v>126814954</v>
       </c>
       <c r="B39" t="n">
-        <v>57654</v>
+        <v>80119</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100049</v>
+        <v>6464</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4359,10 +4354,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>677608</v>
+        <v>677469</v>
       </c>
       <c r="R39" t="n">
-        <v>7109815</v>
+        <v>7109383</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4395,6 +4390,11 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>På grov gammal rönn</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4518,10 +4518,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>126814980</v>
+        <v>126814951</v>
       </c>
       <c r="B41" t="n">
-        <v>78386</v>
+        <v>57654</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4529,21 +4529,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6437</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>677538</v>
+        <v>677608</v>
       </c>
       <c r="R41" t="n">
-        <v>7109554</v>
+        <v>7109815</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>126814974</v>
+        <v>126814962</v>
       </c>
       <c r="B42" t="n">
-        <v>57657</v>
+        <v>82792</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4626,39 +4626,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>677466</v>
+        <v>677473</v>
       </c>
       <c r="R42" t="n">
-        <v>7109379</v>
+        <v>7109404</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4717,10 +4712,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>126814962</v>
+        <v>126814974</v>
       </c>
       <c r="B43" t="n">
-        <v>82792</v>
+        <v>57657</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,34 +4723,39 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>677473</v>
+        <v>677466</v>
       </c>
       <c r="R43" t="n">
-        <v>7109404</v>
+        <v>7109379</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4814,32 +4814,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>126814965</v>
+        <v>126814972</v>
       </c>
       <c r="B44" t="n">
-        <v>78980</v>
+        <v>98278</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>677536</v>
+        <v>677402</v>
       </c>
       <c r="R44" t="n">
-        <v>7109606</v>
+        <v>7109377</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4911,32 +4911,32 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>126814972</v>
+        <v>126814965</v>
       </c>
       <c r="B45" t="n">
-        <v>98278</v>
+        <v>78980</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>677402</v>
+        <v>677536</v>
       </c>
       <c r="R45" t="n">
-        <v>7109377</v>
+        <v>7109606</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5008,32 +5008,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>126814973</v>
+        <v>126814977</v>
       </c>
       <c r="B46" t="n">
-        <v>98278</v>
+        <v>78647</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>219790</v>
+        <v>353</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5043,10 +5043,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>677529</v>
+        <v>677639</v>
       </c>
       <c r="R46" t="n">
-        <v>7109595</v>
+        <v>7109768</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5105,32 +5105,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>126814977</v>
+        <v>126814973</v>
       </c>
       <c r="B47" t="n">
-        <v>78647</v>
+        <v>98278</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>353</v>
+        <v>219790</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>677639</v>
+        <v>677529</v>
       </c>
       <c r="R47" t="n">
-        <v>7109768</v>
+        <v>7109595</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5202,32 +5202,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>126814950</v>
+        <v>126814955</v>
       </c>
       <c r="B48" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5237,10 +5237,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>677528</v>
+        <v>677526</v>
       </c>
       <c r="R48" t="n">
-        <v>7109526</v>
+        <v>7109531</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5299,32 +5299,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>126814955</v>
+        <v>126814950</v>
       </c>
       <c r="B49" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>677526</v>
+        <v>677528</v>
       </c>
       <c r="R49" t="n">
-        <v>7109531</v>
+        <v>7109526</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>

--- a/artfynd/Lögdaselet artfynd.xlsx
+++ b/artfynd/Lögdaselet artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>126814937</v>
+        <v>126814940</v>
       </c>
       <c r="B2" t="n">
         <v>79598</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>677539</v>
+        <v>677606</v>
       </c>
       <c r="R2" t="n">
-        <v>7109754</v>
+        <v>7109678</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>126814940</v>
+        <v>126814937</v>
       </c>
       <c r="B3" t="n">
         <v>79598</v>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>677606</v>
+        <v>677539</v>
       </c>
       <c r="R3" t="n">
-        <v>7109678</v>
+        <v>7109754</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>126814961</v>
+        <v>126814970</v>
       </c>
       <c r="B4" t="n">
         <v>78980</v>
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>677470</v>
+        <v>677462</v>
       </c>
       <c r="R4" t="n">
-        <v>7109382</v>
+        <v>7109378</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>126814970</v>
+        <v>126814961</v>
       </c>
       <c r="B5" t="n">
         <v>78980</v>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>677462</v>
+        <v>677470</v>
       </c>
       <c r="R5" t="n">
-        <v>7109378</v>
+        <v>7109382</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1669,54 +1669,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>126814960</v>
+        <v>126814939</v>
       </c>
       <c r="B12" t="n">
-        <v>98361</v>
+        <v>79598</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>677579</v>
+        <v>677539</v>
       </c>
       <c r="R12" t="n">
-        <v>7110002</v>
+        <v>7109781</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1775,10 +1766,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>126814939</v>
+        <v>126814978</v>
       </c>
       <c r="B13" t="n">
-        <v>79598</v>
+        <v>78647</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1786,21 +1777,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1810,10 +1801,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>677539</v>
+        <v>677588</v>
       </c>
       <c r="R13" t="n">
-        <v>7109781</v>
+        <v>7109668</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1872,10 +1863,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>126814934</v>
+        <v>126814953</v>
       </c>
       <c r="B14" t="n">
-        <v>79598</v>
+        <v>78739</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1883,21 +1874,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1907,10 +1898,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>677547</v>
+        <v>677539</v>
       </c>
       <c r="R14" t="n">
-        <v>7109670</v>
+        <v>7109754</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1969,45 +1960,54 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>126814978</v>
+        <v>126814960</v>
       </c>
       <c r="B15" t="n">
-        <v>78647</v>
+        <v>98361</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>677588</v>
+        <v>677579</v>
       </c>
       <c r="R15" t="n">
-        <v>7109668</v>
+        <v>7110002</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2066,10 +2066,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>126814953</v>
+        <v>126814934</v>
       </c>
       <c r="B16" t="n">
-        <v>78739</v>
+        <v>79598</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2077,21 +2077,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>677539</v>
+        <v>677547</v>
       </c>
       <c r="R16" t="n">
-        <v>7109754</v>
+        <v>7109670</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>126814945</v>
+        <v>126814946</v>
       </c>
       <c r="B18" t="n">
-        <v>75075</v>
+        <v>79569</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2271,21 +2271,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6440</v>
+        <v>229821</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>677462</v>
+        <v>677600</v>
       </c>
       <c r="R18" t="n">
-        <v>7109378</v>
+        <v>7109963</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>126814946</v>
+        <v>126814945</v>
       </c>
       <c r="B19" t="n">
-        <v>79569</v>
+        <v>75075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2368,21 +2368,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>229821</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>677600</v>
+        <v>677462</v>
       </c>
       <c r="R19" t="n">
-        <v>7109963</v>
+        <v>7109378</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2551,32 +2551,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>126814967</v>
+        <v>126814952</v>
       </c>
       <c r="B21" t="n">
-        <v>78980</v>
+        <v>80111</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6461</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>677499</v>
+        <v>677621</v>
       </c>
       <c r="R21" t="n">
-        <v>7109474</v>
+        <v>7109689</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>126814963</v>
+        <v>126814967</v>
       </c>
       <c r="B22" t="n">
         <v>78980</v>
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>677414</v>
+        <v>677499</v>
       </c>
       <c r="R22" t="n">
-        <v>7109372</v>
+        <v>7109474</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2745,32 +2745,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>126814952</v>
+        <v>126814963</v>
       </c>
       <c r="B23" t="n">
-        <v>80111</v>
+        <v>78980</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6461</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2780,10 +2780,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>677621</v>
+        <v>677414</v>
       </c>
       <c r="R23" t="n">
-        <v>7109689</v>
+        <v>7109372</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>126814947</v>
+        <v>126814943</v>
       </c>
       <c r="B24" t="n">
-        <v>79569</v>
+        <v>75075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2853,21 +2853,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>229821</v>
+        <v>6440</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2877,10 +2877,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>677535</v>
+        <v>677425</v>
       </c>
       <c r="R24" t="n">
-        <v>7109555</v>
+        <v>7109375</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2939,10 +2939,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>126814943</v>
+        <v>126814947</v>
       </c>
       <c r="B25" t="n">
-        <v>75075</v>
+        <v>79569</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2950,21 +2950,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6440</v>
+        <v>229821</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>677425</v>
+        <v>677535</v>
       </c>
       <c r="R25" t="n">
-        <v>7109375</v>
+        <v>7109555</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3234,32 +3234,32 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>126814976</v>
+        <v>126814949</v>
       </c>
       <c r="B28" t="n">
-        <v>78647</v>
+        <v>80112</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>353</v>
+        <v>6462</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>677541</v>
+        <v>677526</v>
       </c>
       <c r="R28" t="n">
-        <v>7109785</v>
+        <v>7109531</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3428,32 +3428,32 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>126814949</v>
+        <v>126814976</v>
       </c>
       <c r="B30" t="n">
-        <v>80112</v>
+        <v>78647</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6462</v>
+        <v>353</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>677526</v>
+        <v>677541</v>
       </c>
       <c r="R30" t="n">
-        <v>7109531</v>
+        <v>7109785</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>126814979</v>
+        <v>126814957</v>
       </c>
       <c r="B32" t="n">
-        <v>78386</v>
+        <v>77934</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3637,21 +3637,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6437</v>
+        <v>228579</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>677601</v>
+        <v>677462</v>
       </c>
       <c r="R32" t="n">
-        <v>7109964</v>
+        <v>7109379</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>126814944</v>
+        <v>126814964</v>
       </c>
       <c r="B33" t="n">
-        <v>75075</v>
+        <v>78980</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3734,21 +3734,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>677465</v>
+        <v>677401</v>
       </c>
       <c r="R33" t="n">
         <v>7109391</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>126814964</v>
+        <v>126814979</v>
       </c>
       <c r="B34" t="n">
-        <v>78980</v>
+        <v>78386</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3831,21 +3831,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>677401</v>
+        <v>677601</v>
       </c>
       <c r="R34" t="n">
-        <v>7109391</v>
+        <v>7109964</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>126814957</v>
+        <v>126814944</v>
       </c>
       <c r="B35" t="n">
-        <v>77934</v>
+        <v>75075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3928,21 +3928,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3952,10 +3952,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>677462</v>
+        <v>677465</v>
       </c>
       <c r="R35" t="n">
-        <v>7109379</v>
+        <v>7109391</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4014,45 +4014,59 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>126814975</v>
+        <v>126814958</v>
       </c>
       <c r="B36" t="n">
-        <v>78647</v>
+        <v>98361</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>677531</v>
+        <v>677595</v>
       </c>
       <c r="R36" t="n">
-        <v>7109708</v>
+        <v>7110068</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4111,59 +4125,45 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>126814958</v>
+        <v>126814975</v>
       </c>
       <c r="B37" t="n">
-        <v>98361</v>
+        <v>78647</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Storaggan, Ås lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>677595</v>
+        <v>677531</v>
       </c>
       <c r="R37" t="n">
-        <v>7110068</v>
+        <v>7109708</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4222,10 +4222,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>126814980</v>
+        <v>126814951</v>
       </c>
       <c r="B38" t="n">
-        <v>78386</v>
+        <v>57654</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4233,21 +4233,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6437</v>
+        <v>100049</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>677538</v>
+        <v>677608</v>
       </c>
       <c r="R38" t="n">
-        <v>7109554</v>
+        <v>7109815</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4319,32 +4319,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>126814954</v>
+        <v>126814968</v>
       </c>
       <c r="B39" t="n">
-        <v>80119</v>
+        <v>78980</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4354,10 +4354,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>677469</v>
+        <v>677477</v>
       </c>
       <c r="R39" t="n">
-        <v>7109383</v>
+        <v>7109411</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4390,11 +4390,6 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>På grov gammal rönn</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4421,32 +4416,32 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>126814968</v>
+        <v>126814954</v>
       </c>
       <c r="B40" t="n">
-        <v>78980</v>
+        <v>80119</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4456,10 +4451,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>677477</v>
+        <v>677469</v>
       </c>
       <c r="R40" t="n">
-        <v>7109411</v>
+        <v>7109383</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4492,6 +4487,11 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>På grov gammal rönn</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4518,10 +4518,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>126814951</v>
+        <v>126814980</v>
       </c>
       <c r="B41" t="n">
-        <v>57654</v>
+        <v>78386</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4529,21 +4529,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>6437</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>677608</v>
+        <v>677538</v>
       </c>
       <c r="R41" t="n">
-        <v>7109815</v>
+        <v>7109554</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4814,32 +4814,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>126814972</v>
+        <v>126814965</v>
       </c>
       <c r="B44" t="n">
-        <v>98278</v>
+        <v>78980</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>677402</v>
+        <v>677536</v>
       </c>
       <c r="R44" t="n">
-        <v>7109377</v>
+        <v>7109606</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4911,32 +4911,32 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>126814965</v>
+        <v>126814972</v>
       </c>
       <c r="B45" t="n">
-        <v>78980</v>
+        <v>98278</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>677536</v>
+        <v>677402</v>
       </c>
       <c r="R45" t="n">
-        <v>7109606</v>
+        <v>7109377</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5008,32 +5008,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>126814977</v>
+        <v>126814973</v>
       </c>
       <c r="B46" t="n">
-        <v>78647</v>
+        <v>98278</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>353</v>
+        <v>219790</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5043,10 +5043,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>677639</v>
+        <v>677529</v>
       </c>
       <c r="R46" t="n">
-        <v>7109768</v>
+        <v>7109595</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5105,32 +5105,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>126814973</v>
+        <v>126814977</v>
       </c>
       <c r="B47" t="n">
-        <v>98278</v>
+        <v>78647</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>219790</v>
+        <v>353</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>677529</v>
+        <v>677639</v>
       </c>
       <c r="R47" t="n">
-        <v>7109595</v>
+        <v>7109768</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5202,32 +5202,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>126814955</v>
+        <v>126814950</v>
       </c>
       <c r="B48" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5237,10 +5237,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>677526</v>
+        <v>677528</v>
       </c>
       <c r="R48" t="n">
-        <v>7109531</v>
+        <v>7109526</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5299,32 +5299,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>126814950</v>
+        <v>126814955</v>
       </c>
       <c r="B49" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>677528</v>
+        <v>677526</v>
       </c>
       <c r="R49" t="n">
-        <v>7109526</v>
+        <v>7109531</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
